--- a/Data_Dictionary/xlsx/Columns/Emendas_resumo_columns.xlsx
+++ b/Data_Dictionary/xlsx/Columns/Emendas_resumo_columns.xlsx
@@ -22,6 +22,9 @@
     <t>descricao</t>
   </si>
   <si>
+    <t>proponente</t>
+  </si>
+  <si>
     <t>processo</t>
   </si>
   <si>
@@ -59,9 +62,6 @@
   </si>
   <si>
     <t>pendencia_28/12</t>
-  </si>
-  <si>
-    <t>proponente</t>
   </si>
   <si>
     <t>prop_pk1</t>

--- a/Data_Dictionary/xlsx/Columns/Emendas_resumo_columns.xlsx
+++ b/Data_Dictionary/xlsx/Columns/Emendas_resumo_columns.xlsx
@@ -22,46 +22,46 @@
     <t>descricao</t>
   </si>
   <si>
+    <t>processo</t>
+  </si>
+  <si>
+    <t>emenda</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>pontos_livre_(18_meses</t>
+  </si>
+  <si>
+    <t>pontos_gesac</t>
+  </si>
+  <si>
+    <t>pontos_indicados</t>
+  </si>
+  <si>
+    <t>pontos_analisados</t>
+  </si>
+  <si>
+    <t>pontos_aprovados</t>
+  </si>
+  <si>
+    <t>encaminhamento</t>
+  </si>
+  <si>
+    <t>data_aspar_informada</t>
+  </si>
+  <si>
+    <t>data_cadastrado</t>
+  </si>
+  <si>
+    <t>responsavel</t>
+  </si>
+  <si>
+    <t>pendencia_28/12</t>
+  </si>
+  <si>
     <t>proponente</t>
-  </si>
-  <si>
-    <t>processo</t>
-  </si>
-  <si>
-    <t>emenda</t>
-  </si>
-  <si>
-    <t>valor</t>
-  </si>
-  <si>
-    <t>pontos_livre_(18_meses</t>
-  </si>
-  <si>
-    <t>pontos_gesac</t>
-  </si>
-  <si>
-    <t>pontos_indicados</t>
-  </si>
-  <si>
-    <t>pontos_analisados</t>
-  </si>
-  <si>
-    <t>pontos_aprovados</t>
-  </si>
-  <si>
-    <t>encaminhamento</t>
-  </si>
-  <si>
-    <t>data_aspar_informada</t>
-  </si>
-  <si>
-    <t>data_cadastrado</t>
-  </si>
-  <si>
-    <t>responsavel</t>
-  </si>
-  <si>
-    <t>pendencia_28/12</t>
   </si>
   <si>
     <t>prop_pk1</t>

--- a/Data_Dictionary/xlsx/Columns/Emendas_resumo_columns.xlsx
+++ b/Data_Dictionary/xlsx/Columns/Emendas_resumo_columns.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>columns</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>prop_pk2</t>
+  </si>
+  <si>
+    <t>bancada</t>
+  </si>
+  <si>
+    <t>individual</t>
   </si>
 </sst>
 </file>
@@ -425,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,6 +573,22 @@
         <v>17</v>
       </c>
     </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data_Dictionary/xlsx/Columns/Emendas_resumo_columns.xlsx
+++ b/Data_Dictionary/xlsx/Columns/Emendas_resumo_columns.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>columns</t>
   </si>
@@ -61,19 +61,13 @@
     <t>pendencia_28/12</t>
   </si>
   <si>
+    <t>prop_pk1</t>
+  </si>
+  <si>
+    <t>prop_pk2</t>
+  </si>
+  <si>
     <t>proponente</t>
-  </si>
-  <si>
-    <t>prop_pk1</t>
-  </si>
-  <si>
-    <t>prop_pk2</t>
-  </si>
-  <si>
-    <t>bancada</t>
-  </si>
-  <si>
-    <t>individual</t>
   </si>
 </sst>
 </file>
@@ -431,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,22 +567,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
